--- a/Data/Completing college/EducationReport(36).xlsx
+++ b/Data/Completing college/EducationReport(36).xlsx
@@ -323,73 +323,1841 @@
     <row r="4" ht="20.65" customHeight="0">
       <c s="5" t="inlineStr" r="A4">
         <is>
-          <t xml:space="preserve">11000</t>
+          <t xml:space="preserve">38000</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="B4">
         <is>
-          <t xml:space="preserve">District of Columbia</t>
+          <t xml:space="preserve">North Dakota</t>
         </is>
       </c>
       <c s="6" t="str" r="C4"/>
       <c s="7" r="D4">
-        <v>0.448456569066141</v>
+        <v>0.0838791351358143</v>
       </c>
       <c s="7" r="E4">
-        <v>0.329301422540405</v>
+        <v>0.148222303284961</v>
       </c>
       <c s="7" r="F4">
-        <v>0.268535016901677</v>
+        <v>0.180655655024587</v>
       </c>
       <c s="7" r="G4">
-        <v>0.221693733990404</v>
+        <v>0.219888150568425</v>
       </c>
       <c s="3" t="str" r="H4"/>
       <c s="7" r="I4">
-        <v>0.124657429233983</v>
+        <v>0.270557760016622</v>
       </c>
       <c s="7" r="J4">
-        <v>0.0777772765856239</v>
-      </c>
-    </row>
-    <row r="5" ht="20.6" customHeight="0">
+        <v>0.310880993536377</v>
+      </c>
+    </row>
+    <row r="5" ht="20.65" customHeight="0">
       <c s="5" t="inlineStr" r="A5">
         <is>
-          <t xml:space="preserve">11001</t>
+          <t xml:space="preserve">38001</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="B5">
         <is>
-          <t xml:space="preserve">District of Columbia, DC        </t>
+          <t xml:space="preserve">Adams, ND        </t>
         </is>
       </c>
       <c s="8" r="C5">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c s="7" r="D5">
-        <v>0.448456569066141</v>
+        <v>0.060292039566651</v>
       </c>
       <c s="7" r="E5">
-        <v>0.329301422540405</v>
+        <v>0.105978260869565</v>
       </c>
       <c s="7" r="F5">
-        <v>0.268535016901677</v>
+        <v>0.111926605504587</v>
       </c>
       <c s="7" r="G5">
-        <v>0.221693733990404</v>
+        <v>0.16551724137931</v>
       </c>
       <c s="3" t="str" r="H5"/>
       <c s="7" r="I5">
-        <v>0.124657429233983</v>
+        <v>0.213197969543147</v>
       </c>
       <c s="7" r="J5">
-        <v>0.0777772765856239</v>
-      </c>
-    </row>
-    <row r="6" ht="0.05" customHeight="1"/>
-    <row r="7" ht="5.95" customHeight="1"/>
-    <row r="8" ht="222.75" customHeight="1">
-      <c s="9" t="inlineStr" r="A8">
+        <v>0.191260291323623</v>
+      </c>
+    </row>
+    <row r="6" ht="20.6" customHeight="0">
+      <c s="5" t="inlineStr" r="A6">
+        <is>
+          <t xml:space="preserve">38003</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B6">
+        <is>
+          <t xml:space="preserve">Barnes, ND        </t>
+        </is>
+      </c>
+      <c s="8" r="C6">
+        <v>6</v>
+      </c>
+      <c s="7" r="D6">
+        <v>0.0841985312737402</v>
+      </c>
+      <c s="7" r="E6">
+        <v>0.148004367341987</v>
+      </c>
+      <c s="7" r="F6">
+        <v>0.154382104877154</v>
+      </c>
+      <c s="7" r="G6">
+        <v>0.220739219712526</v>
+      </c>
+      <c s="3" t="str" r="H6"/>
+      <c s="7" r="I6">
+        <v>0.261453800870233</v>
+      </c>
+      <c s="7" r="J6">
+        <v>0.292502639915523</v>
+      </c>
+    </row>
+    <row r="7" ht="20.65" customHeight="0">
+      <c s="5" t="inlineStr" r="A7">
+        <is>
+          <t xml:space="preserve">38005</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B7">
+        <is>
+          <t xml:space="preserve">Benson, ND        </t>
+        </is>
+      </c>
+      <c s="8" r="C7">
+        <v>9</v>
+      </c>
+      <c s="7" r="D7">
+        <v>0.047520184544406</v>
+      </c>
+      <c s="7" r="E7">
+        <v>0.0894346617238184</v>
+      </c>
+      <c s="7" r="F7">
+        <v>0.0922518159806295</v>
+      </c>
+      <c s="7" r="G7">
+        <v>0.109174782162993</v>
+      </c>
+      <c s="3" t="str" r="H7"/>
+      <c s="7" r="I7">
+        <v>0.111139963645806</v>
+      </c>
+      <c s="7" r="J7">
+        <v>0.194477085781434</v>
+      </c>
+    </row>
+    <row r="8" ht="20.6" customHeight="0">
+      <c s="5" t="inlineStr" r="A8">
+        <is>
+          <t xml:space="preserve">38007</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B8">
+        <is>
+          <t xml:space="preserve">Billings, ND        </t>
+        </is>
+      </c>
+      <c s="8" r="C8">
+        <v>9</v>
+      </c>
+      <c s="7" r="D8">
+        <v>0.0479338842975207</v>
+      </c>
+      <c s="7" r="E8">
+        <v>0.10459587955626</v>
+      </c>
+      <c s="7" r="F8">
+        <v>0.125730994152047</v>
+      </c>
+      <c s="7" r="G8">
+        <v>0.187888198757764</v>
+      </c>
+      <c s="3" t="str" r="H8"/>
+      <c s="7" r="I8">
+        <v>0.226153846153846</v>
+      </c>
+      <c s="7" r="J8">
+        <v>0.266666666666667</v>
+      </c>
+    </row>
+    <row r="9" ht="20.65" customHeight="0">
+      <c s="5" t="inlineStr" r="A9">
+        <is>
+          <t xml:space="preserve">38009</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B9">
+        <is>
+          <t xml:space="preserve">Bottineau, ND        </t>
+        </is>
+      </c>
+      <c s="8" r="C9">
+        <v>9</v>
+      </c>
+      <c s="7" r="D9">
+        <v>0.0472998137802607</v>
+      </c>
+      <c s="7" r="E9">
+        <v>0.110311319057045</v>
+      </c>
+      <c s="7" r="F9">
+        <v>0.143044128646223</v>
+      </c>
+      <c s="7" r="G9">
+        <v>0.149004624974864</v>
+      </c>
+      <c s="3" t="str" r="H9"/>
+      <c s="7" r="I9">
+        <v>0.217372608041281</v>
+      </c>
+      <c s="7" r="J9">
+        <v>0.245661482983998</v>
+      </c>
+    </row>
+    <row r="10" ht="20.6" customHeight="0">
+      <c s="5" t="inlineStr" r="A10">
+        <is>
+          <t xml:space="preserve">38011</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B10">
+        <is>
+          <t xml:space="preserve">Bowman, ND        </t>
+        </is>
+      </c>
+      <c s="8" r="C10">
+        <v>9</v>
+      </c>
+      <c s="7" r="D10">
+        <v>0.0691943127962085</v>
+      </c>
+      <c s="7" r="E10">
+        <v>0.112172829248027</v>
+      </c>
+      <c s="7" r="F10">
+        <v>0.139340842720067</v>
+      </c>
+      <c s="7" r="G10">
+        <v>0.178602620087336</v>
+      </c>
+      <c s="3" t="str" r="H10"/>
+      <c s="7" r="I10">
+        <v>0.218653761548614</v>
+      </c>
+      <c s="7" r="J10">
+        <v>0.188398849472675</v>
+      </c>
+    </row>
+    <row r="11" ht="20.65" customHeight="0">
+      <c s="5" t="inlineStr" r="A11">
+        <is>
+          <t xml:space="preserve">38013</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B11">
+        <is>
+          <t xml:space="preserve">Burke, ND        </t>
+        </is>
+      </c>
+      <c s="8" r="C11">
+        <v>9</v>
+      </c>
+      <c s="7" r="D11">
+        <v>0.0358187134502924</v>
+      </c>
+      <c s="7" r="E11">
+        <v>0.0915322580645161</v>
+      </c>
+      <c s="7" r="F11">
+        <v>0.087138863000932</v>
+      </c>
+      <c s="7" r="G11">
+        <v>0.119739181979846</v>
+      </c>
+      <c s="3" t="str" r="H11"/>
+      <c s="7" r="I11">
+        <v>0.1545636242505</v>
+      </c>
+      <c s="7" r="J11">
+        <v>0.217592592592593</v>
+      </c>
+    </row>
+    <row r="12" ht="20.6" customHeight="0">
+      <c s="5" t="inlineStr" r="A12">
+        <is>
+          <t xml:space="preserve">38015</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B12">
+        <is>
+          <t xml:space="preserve">Burleigh, ND        </t>
+        </is>
+      </c>
+      <c s="8" r="C12">
+        <v>3</v>
+      </c>
+      <c s="7" r="D12">
+        <v>0.121717911176184</v>
+      </c>
+      <c s="7" r="E12">
+        <v>0.223249581239531</v>
+      </c>
+      <c s="7" r="F12">
+        <v>0.250620612337506</v>
+      </c>
+      <c s="7" r="G12">
+        <v>0.286988081369298</v>
+      </c>
+      <c s="3" t="str" r="H12"/>
+      <c s="7" r="I12">
+        <v>0.330260521042084</v>
+      </c>
+      <c s="7" r="J12">
+        <v>0.372161805523957</v>
+      </c>
+    </row>
+    <row r="13" ht="20.65" customHeight="0">
+      <c s="5" t="inlineStr" r="A13">
+        <is>
+          <t xml:space="preserve">38017</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B13">
+        <is>
+          <t xml:space="preserve">Cass, ND        </t>
+        </is>
+      </c>
+      <c s="8" r="C13">
+        <v>3</v>
+      </c>
+      <c s="7" r="D13">
+        <v>0.14215107498833</v>
+      </c>
+      <c s="7" r="E13">
+        <v>0.222281868109179</v>
+      </c>
+      <c s="7" r="F13">
+        <v>0.265431496830814</v>
+      </c>
+      <c s="7" r="G13">
+        <v>0.312543526008464</v>
+      </c>
+      <c s="3" t="str" r="H13"/>
+      <c s="7" r="I13">
+        <v>0.370274074153658</v>
+      </c>
+      <c s="7" r="J13">
+        <v>0.417568509956867</v>
+      </c>
+    </row>
+    <row r="14" ht="20.6" customHeight="0">
+      <c s="5" t="inlineStr" r="A14">
+        <is>
+          <t xml:space="preserve">38019</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B14">
+        <is>
+          <t xml:space="preserve">Cavalier, ND        </t>
+        </is>
+      </c>
+      <c s="8" r="C14">
+        <v>9</v>
+      </c>
+      <c s="7" r="D14">
+        <v>0.0393147375356908</v>
+      </c>
+      <c s="7" r="E14">
+        <v>0.110040676514665</v>
+      </c>
+      <c s="7" r="F14">
+        <v>0.126262626262626</v>
+      </c>
+      <c s="7" r="G14">
+        <v>0.131138070479492</v>
+      </c>
+      <c s="3" t="str" r="H14"/>
+      <c s="7" r="I14">
+        <v>0.165223184543638</v>
+      </c>
+      <c s="7" r="J14">
+        <v>0.248959515701854</v>
+      </c>
+    </row>
+    <row r="15" ht="20.65" customHeight="0">
+      <c s="5" t="inlineStr" r="A15">
+        <is>
+          <t xml:space="preserve">38021</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B15">
+        <is>
+          <t xml:space="preserve">Dickey, ND        </t>
+        </is>
+      </c>
+      <c s="8" r="C15">
+        <v>9</v>
+      </c>
+      <c s="7" r="D15">
+        <v>0.0598121601581809</v>
+      </c>
+      <c s="7" r="E15">
+        <v>0.109741920483608</v>
+      </c>
+      <c s="7" r="F15">
+        <v>0.160341794420709</v>
+      </c>
+      <c s="7" r="G15">
+        <v>0.165661861074705</v>
+      </c>
+      <c s="3" t="str" r="H15"/>
+      <c s="7" r="I15">
+        <v>0.234605739760379</v>
+      </c>
+      <c s="7" r="J15">
+        <v>0.252447980416157</v>
+      </c>
+    </row>
+    <row r="16" ht="20.6" customHeight="0">
+      <c s="5" t="inlineStr" r="A16">
+        <is>
+          <t xml:space="preserve">38023</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B16">
+        <is>
+          <t xml:space="preserve">Divide, ND        </t>
+        </is>
+      </c>
+      <c s="8" r="C16">
+        <v>9</v>
+      </c>
+      <c s="7" r="D16">
+        <v>0.0316190476190476</v>
+      </c>
+      <c s="7" r="E16">
+        <v>0.0922811556705476</v>
+      </c>
+      <c s="7" r="F16">
+        <v>0.12827849308536</v>
+      </c>
+      <c s="7" r="G16">
+        <v>0.13268236645606</v>
+      </c>
+      <c s="3" t="str" r="H16"/>
+      <c s="7" r="I16">
+        <v>0.209009009009009</v>
+      </c>
+      <c s="7" r="J16">
+        <v>0.23405612244898</v>
+      </c>
+    </row>
+    <row r="17" ht="20.65" customHeight="0">
+      <c s="5" t="inlineStr" r="A17">
+        <is>
+          <t xml:space="preserve">38025</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B17">
+        <is>
+          <t xml:space="preserve">Dunn, ND        </t>
+        </is>
+      </c>
+      <c s="8" r="C17">
+        <v>9</v>
+      </c>
+      <c s="7" r="D17">
+        <v>0.0511779041429732</v>
+      </c>
+      <c s="7" r="E17">
+        <v>0.0727762803234501</v>
+      </c>
+      <c s="7" r="F17">
+        <v>0.101300748916043</v>
+      </c>
+      <c s="7" r="G17">
+        <v>0.162557459256164</v>
+      </c>
+      <c s="3" t="str" r="H17"/>
+      <c s="7" r="I17">
+        <v>0.174163783160323</v>
+      </c>
+      <c s="7" r="J17">
+        <v>0.196434693177923</v>
+      </c>
+    </row>
+    <row r="18" ht="20.6" customHeight="0">
+      <c s="5" t="inlineStr" r="A18">
+        <is>
+          <t xml:space="preserve">38027</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B18">
+        <is>
+          <t xml:space="preserve">Eddy, ND        </t>
+        </is>
+      </c>
+      <c s="8" r="C18">
+        <v>9</v>
+      </c>
+      <c s="7" r="D18">
+        <v>0.0604890604890605</v>
+      </c>
+      <c s="7" r="E18">
+        <v>0.103494029190624</v>
+      </c>
+      <c s="7" r="F18">
+        <v>0.109767891682785</v>
+      </c>
+      <c s="7" r="G18">
+        <v>0.159337816864977</v>
+      </c>
+      <c s="3" t="str" r="H18"/>
+      <c s="7" r="I18">
+        <v>0.184807256235828</v>
+      </c>
+      <c s="7" r="J18">
+        <v>0.246462264150943</v>
+      </c>
+    </row>
+    <row r="19" ht="20.65" customHeight="0">
+      <c s="5" t="inlineStr" r="A19">
+        <is>
+          <t xml:space="preserve">38029</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B19">
+        <is>
+          <t xml:space="preserve">Emmons, ND        </t>
+        </is>
+      </c>
+      <c s="8" r="C19">
+        <v>8</v>
+      </c>
+      <c s="7" r="D19">
+        <v>0.0328820116054159</v>
+      </c>
+      <c s="7" r="E19">
+        <v>0.0860774119006355</v>
+      </c>
+      <c s="7" r="F19">
+        <v>0.0904431715405487</v>
+      </c>
+      <c s="7" r="G19">
+        <v>0.12256</v>
+      </c>
+      <c s="3" t="str" r="H19"/>
+      <c s="7" r="I19">
+        <v>0.149633629001157</v>
+      </c>
+      <c s="7" r="J19">
+        <v>0.179870654810024</v>
+      </c>
+    </row>
+    <row r="20" ht="20.6" customHeight="0">
+      <c s="5" t="inlineStr" r="A20">
+        <is>
+          <t xml:space="preserve">38031</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B20">
+        <is>
+          <t xml:space="preserve">Foster, ND        </t>
+        </is>
+      </c>
+      <c s="8" r="C20">
+        <v>9</v>
+      </c>
+      <c s="7" r="D20">
+        <v>0.0545740086376129</v>
+      </c>
+      <c s="7" r="E20">
+        <v>0.113602941176471</v>
+      </c>
+      <c s="7" r="F20">
+        <v>0.120825515947467</v>
+      </c>
+      <c s="7" r="G20">
+        <v>0.197742312183729</v>
+      </c>
+      <c s="3" t="str" r="H20"/>
+      <c s="7" r="I20">
+        <v>0.187136929460581</v>
+      </c>
+      <c s="7" r="J20">
+        <v>0.229227557411273</v>
+      </c>
+    </row>
+    <row r="21" ht="20.65" customHeight="0">
+      <c s="5" t="inlineStr" r="A21">
+        <is>
+          <t xml:space="preserve">38033</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B21">
+        <is>
+          <t xml:space="preserve">Golden Valley, ND        </t>
+        </is>
+      </c>
+      <c s="8" r="C21">
+        <v>9</v>
+      </c>
+      <c s="7" r="D21">
+        <v>0.0586182833217027</v>
+      </c>
+      <c s="7" r="E21">
+        <v>0.152387640449438</v>
+      </c>
+      <c s="7" r="F21">
+        <v>0.156789197299325</v>
+      </c>
+      <c s="7" r="G21">
+        <v>0.197965571205008</v>
+      </c>
+      <c s="3" t="str" r="H21"/>
+      <c s="7" r="I21">
+        <v>0.200716845878136</v>
+      </c>
+      <c s="7" r="J21">
+        <v>0.234944237918216</v>
+      </c>
+    </row>
+    <row r="22" ht="20.6" customHeight="0">
+      <c s="5" t="inlineStr" r="A22">
+        <is>
+          <t xml:space="preserve">38035</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B22">
+        <is>
+          <t xml:space="preserve">Grand Forks, ND        </t>
+        </is>
+      </c>
+      <c s="8" r="C22">
+        <v>3</v>
+      </c>
+      <c s="7" r="D22">
+        <v>0.155145645423629</v>
+      </c>
+      <c s="7" r="E22">
+        <v>0.225852537424685</v>
+      </c>
+      <c s="7" r="F22">
+        <v>0.25847381750275</v>
+      </c>
+      <c s="7" r="G22">
+        <v>0.278461703152599</v>
+      </c>
+      <c s="3" t="str" r="H22"/>
+      <c s="7" r="I22">
+        <v>0.334394245200021</v>
+      </c>
+      <c s="7" r="J22">
+        <v>0.361064470869655</v>
+      </c>
+    </row>
+    <row r="23" ht="20.65" customHeight="0">
+      <c s="5" t="inlineStr" r="A23">
+        <is>
+          <t xml:space="preserve">38037</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B23">
+        <is>
+          <t xml:space="preserve">Grant, ND        </t>
+        </is>
+      </c>
+      <c s="8" r="C23">
+        <v>8</v>
+      </c>
+      <c s="7" r="D23">
+        <v>0.0234811777860604</v>
+      </c>
+      <c s="7" r="E23">
+        <v>0.0763861962000776</v>
+      </c>
+      <c s="7" r="F23">
+        <v>0.089242053789731</v>
+      </c>
+      <c s="7" r="G23">
+        <v>0.111545988258317</v>
+      </c>
+      <c s="3" t="str" r="H23"/>
+      <c s="7" r="I23">
+        <v>0.152770005595971</v>
+      </c>
+      <c s="7" r="J23">
+        <v>0.210103329506315</v>
+      </c>
+    </row>
+    <row r="24" ht="20.6" customHeight="0">
+      <c s="5" t="inlineStr" r="A24">
+        <is>
+          <t xml:space="preserve">38039</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B24">
+        <is>
+          <t xml:space="preserve">Griggs, ND        </t>
+        </is>
+      </c>
+      <c s="8" r="C24">
+        <v>9</v>
+      </c>
+      <c s="7" r="D24">
+        <v>0.0530693069306931</v>
+      </c>
+      <c s="7" r="E24">
+        <v>0.0885352917176663</v>
+      </c>
+      <c s="7" r="F24">
+        <v>0.121225382932166</v>
+      </c>
+      <c s="7" r="G24">
+        <v>0.157049673858505</v>
+      </c>
+      <c s="3" t="str" r="H24"/>
+      <c s="7" r="I24">
+        <v>0.155865024102839</v>
+      </c>
+      <c s="7" r="J24">
+        <v>0.298975286317058</v>
+      </c>
+    </row>
+    <row r="25" ht="20.65" customHeight="0">
+      <c s="5" t="inlineStr" r="A25">
+        <is>
+          <t xml:space="preserve">38041</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B25">
+        <is>
+          <t xml:space="preserve">Hettinger, ND        </t>
+        </is>
+      </c>
+      <c s="8" r="C25">
+        <v>9</v>
+      </c>
+      <c s="7" r="D25">
+        <v>0.0870056497175141</v>
+      </c>
+      <c s="7" r="E25">
+        <v>0.0978219335116546</v>
+      </c>
+      <c s="7" r="F25">
+        <v>0.121581825830879</v>
+      </c>
+      <c s="7" r="G25">
+        <v>0.143579373104146</v>
+      </c>
+      <c s="3" t="str" r="H25"/>
+      <c s="7" r="I25">
+        <v>0.179989412387507</v>
+      </c>
+      <c s="7" r="J25">
+        <v>0.168017287952458</v>
+      </c>
+    </row>
+    <row r="26" ht="20.6" customHeight="0">
+      <c s="5" t="inlineStr" r="A26">
+        <is>
+          <t xml:space="preserve">38043</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B26">
+        <is>
+          <t xml:space="preserve">Kidder, ND        </t>
+        </is>
+      </c>
+      <c s="8" r="C26">
+        <v>8</v>
+      </c>
+      <c s="7" r="D26">
+        <v>0.0232952138924185</v>
+      </c>
+      <c s="7" r="E26">
+        <v>0.0914235959947758</v>
+      </c>
+      <c s="7" r="F26">
+        <v>0.112751677852349</v>
+      </c>
+      <c s="7" r="G26">
+        <v>0.109989909182644</v>
+      </c>
+      <c s="3" t="str" r="H26"/>
+      <c s="7" r="I26">
+        <v>0.184412733260154</v>
+      </c>
+      <c s="7" r="J26">
+        <v>0.190737355271176</v>
+      </c>
+    </row>
+    <row r="27" ht="20.65" customHeight="0">
+      <c s="5" t="inlineStr" r="A27">
+        <is>
+          <t xml:space="preserve">38045</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B27">
+        <is>
+          <t xml:space="preserve">LaMoure, ND        </t>
+        </is>
+      </c>
+      <c s="8" r="C27">
+        <v>9</v>
+      </c>
+      <c s="7" r="D27">
+        <v>0.0517704517704518</v>
+      </c>
+      <c s="7" r="E27">
+        <v>0.100275758335422</v>
+      </c>
+      <c s="7" r="F27">
+        <v>0.124147339699864</v>
+      </c>
+      <c s="7" r="G27">
+        <v>0.138610858356081</v>
+      </c>
+      <c s="3" t="str" r="H27"/>
+      <c s="7" r="I27">
+        <v>0.207142857142857</v>
+      </c>
+      <c s="7" r="J27">
+        <v>0.233310626702997</v>
+      </c>
+    </row>
+    <row r="28" ht="20.6" customHeight="0">
+      <c s="5" t="inlineStr" r="A28">
+        <is>
+          <t xml:space="preserve">38047</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B28">
+        <is>
+          <t xml:space="preserve">Logan, ND        </t>
+        </is>
+      </c>
+      <c s="8" r="C28">
+        <v>9</v>
+      </c>
+      <c s="7" r="D28">
+        <v>0.0153576129881527</v>
+      </c>
+      <c s="7" r="E28">
+        <v>0.0494454713493531</v>
+      </c>
+      <c s="7" r="F28">
+        <v>0.0928290766208252</v>
+      </c>
+      <c s="7" r="G28">
+        <v>0.129356172474897</v>
+      </c>
+      <c s="3" t="str" r="H28"/>
+      <c s="7" r="I28">
+        <v>0.12869924294563</v>
+      </c>
+      <c s="7" r="J28">
+        <v>0.227035100821509</v>
+      </c>
+    </row>
+    <row r="29" ht="20.65" customHeight="0">
+      <c s="5" t="inlineStr" r="A29">
+        <is>
+          <t xml:space="preserve">38049</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B29">
+        <is>
+          <t xml:space="preserve">McHenry, ND        </t>
+        </is>
+      </c>
+      <c s="8" r="C29">
+        <v>9</v>
+      </c>
+      <c s="7" r="D29">
+        <v>0.037972126843062</v>
+      </c>
+      <c s="7" r="E29">
+        <v>0.0806252570958453</v>
+      </c>
+      <c s="7" r="F29">
+        <v>0.0968686641135391</v>
+      </c>
+      <c s="7" r="G29">
+        <v>0.131679389312977</v>
+      </c>
+      <c s="3" t="str" r="H29"/>
+      <c s="7" r="I29">
+        <v>0.156344410876133</v>
+      </c>
+      <c s="7" r="J29">
+        <v>0.208616187989556</v>
+      </c>
+    </row>
+    <row r="30" ht="20.6" customHeight="0">
+      <c s="5" t="inlineStr" r="A30">
+        <is>
+          <t xml:space="preserve">38051</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B30">
+        <is>
+          <t xml:space="preserve">McIntosh, ND        </t>
+        </is>
+      </c>
+      <c s="8" r="C30">
+        <v>9</v>
+      </c>
+      <c s="7" r="D30">
+        <v>0.0428355957767722</v>
+      </c>
+      <c s="7" r="E30">
+        <v>0.0638880438089443</v>
+      </c>
+      <c s="7" r="F30">
+        <v>0.0947438901908269</v>
+      </c>
+      <c s="7" r="G30">
+        <v>0.0988372093023256</v>
+      </c>
+      <c s="3" t="str" r="H30"/>
+      <c s="7" r="I30">
+        <v>0.185538881309686</v>
+      </c>
+      <c s="7" r="J30">
+        <v>0.161661661661662</v>
+      </c>
+    </row>
+    <row r="31" ht="20.65" customHeight="0">
+      <c s="5" t="inlineStr" r="A31">
+        <is>
+          <t xml:space="preserve">38053</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B31">
+        <is>
+          <t xml:space="preserve">McKenzie, ND        </t>
+        </is>
+      </c>
+      <c s="8" r="C31">
+        <v>9</v>
+      </c>
+      <c s="7" r="D31">
+        <v>0.0432136335970785</v>
+      </c>
+      <c s="7" r="E31">
+        <v>0.0989124805800104</v>
+      </c>
+      <c s="7" r="F31">
+        <v>0.142275388139476</v>
+      </c>
+      <c s="7" r="G31">
+        <v>0.157244785949506</v>
+      </c>
+      <c s="3" t="str" r="H31"/>
+      <c s="7" r="I31">
+        <v>0.201929703652653</v>
+      </c>
+      <c s="7" r="J31">
+        <v>0.239755571531272</v>
+      </c>
+    </row>
+    <row r="32" ht="20.6" customHeight="0">
+      <c s="5" t="inlineStr" r="A32">
+        <is>
+          <t xml:space="preserve">38055</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B32">
+        <is>
+          <t xml:space="preserve">McLean, ND        </t>
+        </is>
+      </c>
+      <c s="8" r="C32">
+        <v>8</v>
+      </c>
+      <c s="7" r="D32">
+        <v>0.0577594414471596</v>
+      </c>
+      <c s="7" r="E32">
+        <v>0.11233660130719</v>
+      </c>
+      <c s="7" r="F32">
+        <v>0.119268717353453</v>
+      </c>
+      <c s="7" r="G32">
+        <v>0.151208459214502</v>
+      </c>
+      <c s="3" t="str" r="H32"/>
+      <c s="7" r="I32">
+        <v>0.17408608490566</v>
+      </c>
+      <c s="7" r="J32">
+        <v>0.213676428774524</v>
+      </c>
+    </row>
+    <row r="33" ht="20.65" customHeight="0">
+      <c s="5" t="inlineStr" r="A33">
+        <is>
+          <t xml:space="preserve">38057</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B33">
+        <is>
+          <t xml:space="preserve">Mercer, ND        </t>
+        </is>
+      </c>
+      <c s="8" r="C33">
+        <v>7</v>
+      </c>
+      <c s="7" r="D33">
+        <v>0.0351374327004817</v>
+      </c>
+      <c s="7" r="E33">
+        <v>0.10651110274746</v>
+      </c>
+      <c s="7" r="F33">
+        <v>0.111777093795561</v>
+      </c>
+      <c s="7" r="G33">
+        <v>0.143771626297578</v>
+      </c>
+      <c s="3" t="str" r="H33"/>
+      <c s="7" r="I33">
+        <v>0.197982755815845</v>
+      </c>
+      <c s="7" r="J33">
+        <v>0.211272359095511</v>
+      </c>
+    </row>
+    <row r="34" ht="20.6" customHeight="0">
+      <c s="5" t="inlineStr" r="A34">
+        <is>
+          <t xml:space="preserve">38059</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B34">
+        <is>
+          <t xml:space="preserve">Morton, ND        </t>
+        </is>
+      </c>
+      <c s="8" r="C34">
+        <v>3</v>
+      </c>
+      <c s="7" r="D34">
+        <v>0.0621529469069654</v>
+      </c>
+      <c s="7" r="E34">
+        <v>0.115404205777487</v>
+      </c>
+      <c s="7" r="F34">
+        <v>0.137912348438664</v>
+      </c>
+      <c s="7" r="G34">
+        <v>0.170217917675545</v>
+      </c>
+      <c s="3" t="str" r="H34"/>
+      <c s="7" r="I34">
+        <v>0.241059532057773</v>
+      </c>
+      <c s="7" r="J34">
+        <v>0.272687166365201</v>
+      </c>
+    </row>
+    <row r="35" ht="20.65" customHeight="0">
+      <c s="5" t="inlineStr" r="A35">
+        <is>
+          <t xml:space="preserve">38061</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B35">
+        <is>
+          <t xml:space="preserve">Mountrail, ND        </t>
+        </is>
+      </c>
+      <c s="8" r="C35">
+        <v>9</v>
+      </c>
+      <c s="7" r="D35">
+        <v>0.0453465774130857</v>
+      </c>
+      <c s="7" r="E35">
+        <v>0.0974863387978142</v>
+      </c>
+      <c s="7" r="F35">
+        <v>0.128953229398664</v>
+      </c>
+      <c s="7" r="G35">
+        <v>0.156184729635646</v>
+      </c>
+      <c s="3" t="str" r="H35"/>
+      <c s="7" r="I35">
+        <v>0.185978004713276</v>
+      </c>
+      <c s="7" r="J35">
+        <v>0.213620774130328</v>
+      </c>
+    </row>
+    <row r="36" ht="20.6" customHeight="0">
+      <c s="5" t="inlineStr" r="A36">
+        <is>
+          <t xml:space="preserve">38063</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B36">
+        <is>
+          <t xml:space="preserve">Nelson, ND        </t>
+        </is>
+      </c>
+      <c s="8" r="C36">
+        <v>8</v>
+      </c>
+      <c s="7" r="D36">
+        <v>0.0406976744186047</v>
+      </c>
+      <c s="7" r="E36">
+        <v>0.0889579214911042</v>
+      </c>
+      <c s="7" r="F36">
+        <v>0.106495940037477</v>
+      </c>
+      <c s="7" r="G36">
+        <v>0.174718488921177</v>
+      </c>
+      <c s="3" t="str" r="H36"/>
+      <c s="7" r="I36">
+        <v>0.207332490518331</v>
+      </c>
+      <c s="7" r="J36">
+        <v>0.245953237410072</v>
+      </c>
+    </row>
+    <row r="37" ht="20.65" customHeight="0">
+      <c s="5" t="inlineStr" r="A37">
+        <is>
+          <t xml:space="preserve">38065</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B37">
+        <is>
+          <t xml:space="preserve">Oliver, ND        </t>
+        </is>
+      </c>
+      <c s="8" r="C37">
+        <v>3</v>
+      </c>
+      <c s="7" r="D37">
+        <v>0.0212044105173876</v>
+      </c>
+      <c s="7" r="E37">
+        <v>0.0610021786492375</v>
+      </c>
+      <c s="7" r="F37">
+        <v>0.107534246575342</v>
+      </c>
+      <c s="7" r="G37">
+        <v>0.119828815977175</v>
+      </c>
+      <c s="3" t="str" r="H37"/>
+      <c s="7" r="I37">
+        <v>0.148648648648649</v>
+      </c>
+      <c s="7" r="J37">
+        <v>0.205813040062844</v>
+      </c>
+    </row>
+    <row r="38" ht="20.6" customHeight="0">
+      <c s="5" t="inlineStr" r="A38">
+        <is>
+          <t xml:space="preserve">38067</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B38">
+        <is>
+          <t xml:space="preserve">Pembina, ND        </t>
+        </is>
+      </c>
+      <c s="8" r="C38">
+        <v>9</v>
+      </c>
+      <c s="7" r="D38">
+        <v>0.0506867233485939</v>
+      </c>
+      <c s="7" r="E38">
+        <v>0.116583541147132</v>
+      </c>
+      <c s="7" r="F38">
+        <v>0.131382113821138</v>
+      </c>
+      <c s="7" r="G38">
+        <v>0.164014895057549</v>
+      </c>
+      <c s="3" t="str" r="H38"/>
+      <c s="7" r="I38">
+        <v>0.199068901303538</v>
+      </c>
+      <c s="7" r="J38">
+        <v>0.216341316160193</v>
+      </c>
+    </row>
+    <row r="39" ht="20.65" customHeight="0">
+      <c s="5" t="inlineStr" r="A39">
+        <is>
+          <t xml:space="preserve">38069</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B39">
+        <is>
+          <t xml:space="preserve">Pierce, ND        </t>
+        </is>
+      </c>
+      <c s="8" r="C39">
+        <v>7</v>
+      </c>
+      <c s="7" r="D39">
+        <v>0.0590459569517161</v>
+      </c>
+      <c s="7" r="E39">
+        <v>0.0822259136212625</v>
+      </c>
+      <c s="7" r="F39">
+        <v>0.134023583549037</v>
+      </c>
+      <c s="7" r="G39">
+        <v>0.147272727272727</v>
+      </c>
+      <c s="3" t="str" r="H39"/>
+      <c s="7" r="I39">
+        <v>0.133125972006221</v>
+      </c>
+      <c s="7" r="J39">
+        <v>0.289122807017544</v>
+      </c>
+    </row>
+    <row r="40" ht="20.6" customHeight="0">
+      <c s="5" t="inlineStr" r="A40">
+        <is>
+          <t xml:space="preserve">38071</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B40">
+        <is>
+          <t xml:space="preserve">Ramsey, ND        </t>
+        </is>
+      </c>
+      <c s="8" r="C40">
+        <v>7</v>
+      </c>
+      <c s="7" r="D40">
+        <v>0.0794835007173601</v>
+      </c>
+      <c s="7" r="E40">
+        <v>0.130803338549817</v>
+      </c>
+      <c s="7" r="F40">
+        <v>0.163034316676701</v>
+      </c>
+      <c s="7" r="G40">
+        <v>0.188477163609504</v>
+      </c>
+      <c s="3" t="str" r="H40"/>
+      <c s="7" r="I40">
+        <v>0.21927374301676</v>
+      </c>
+      <c s="7" r="J40">
+        <v>0.25472775732961</v>
+      </c>
+    </row>
+    <row r="41" ht="20.65" customHeight="0">
+      <c s="5" t="inlineStr" r="A41">
+        <is>
+          <t xml:space="preserve">38073</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B41">
+        <is>
+          <t xml:space="preserve">Ransom, ND        </t>
+        </is>
+      </c>
+      <c s="8" r="C41">
+        <v>8</v>
+      </c>
+      <c s="7" r="D41">
+        <v>0.0523351325979817</v>
+      </c>
+      <c s="7" r="E41">
+        <v>0.105562130177515</v>
+      </c>
+      <c s="7" r="F41">
+        <v>0.110512129380054</v>
+      </c>
+      <c s="7" r="G41">
+        <v>0.157933579335793</v>
+      </c>
+      <c s="3" t="str" r="H41"/>
+      <c s="7" r="I41">
+        <v>0.167735316747884</v>
+      </c>
+      <c s="7" r="J41">
+        <v>0.212373737373737</v>
+      </c>
+    </row>
+    <row r="42" ht="20.6" customHeight="0">
+      <c s="5" t="inlineStr" r="A42">
+        <is>
+          <t xml:space="preserve">38075</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B42">
+        <is>
+          <t xml:space="preserve">Renville, ND        </t>
+        </is>
+      </c>
+      <c s="8" r="C42">
+        <v>9</v>
+      </c>
+      <c s="7" r="D42">
+        <v>0.0500467726847521</v>
+      </c>
+      <c s="7" r="E42">
+        <v>0.102123813827384</v>
+      </c>
+      <c s="7" r="F42">
+        <v>0.0981681540629403</v>
+      </c>
+      <c s="7" r="G42">
+        <v>0.160790598290598</v>
+      </c>
+      <c s="3" t="str" r="H42"/>
+      <c s="7" r="I42">
+        <v>0.172452407614782</v>
+      </c>
+      <c s="7" r="J42">
+        <v>0.233289646133683</v>
+      </c>
+    </row>
+    <row r="43" ht="20.65" customHeight="0">
+      <c s="5" t="inlineStr" r="A43">
+        <is>
+          <t xml:space="preserve">38077</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B43">
+        <is>
+          <t xml:space="preserve">Richland, ND        </t>
+        </is>
+      </c>
+      <c s="8" r="C43">
+        <v>6</v>
+      </c>
+      <c s="7" r="D43">
+        <v>0.069954492538893</v>
+      </c>
+      <c s="7" r="E43">
+        <v>0.10788220429585</v>
+      </c>
+      <c s="7" r="F43">
+        <v>0.129977324263039</v>
+      </c>
+      <c s="7" r="G43">
+        <v>0.151760531343827</v>
+      </c>
+      <c s="3" t="str" r="H43"/>
+      <c s="7" r="I43">
+        <v>0.206602970390692</v>
+      </c>
+      <c s="7" r="J43">
+        <v>0.226025459688826</v>
+      </c>
+    </row>
+    <row r="44" ht="20.6" customHeight="0">
+      <c s="5" t="inlineStr" r="A44">
+        <is>
+          <t xml:space="preserve">38079</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B44">
+        <is>
+          <t xml:space="preserve">Rolette, ND        </t>
+        </is>
+      </c>
+      <c s="8" r="C44">
+        <v>9</v>
+      </c>
+      <c s="7" r="D44">
+        <v>0.072061191626409</v>
+      </c>
+      <c s="7" r="E44">
+        <v>0.0961341087923366</v>
+      </c>
+      <c s="7" r="F44">
+        <v>0.116816816816817</v>
+      </c>
+      <c s="7" r="G44">
+        <v>0.147312989467999</v>
+      </c>
+      <c s="3" t="str" r="H44"/>
+      <c s="7" r="I44">
+        <v>0.186639727238288</v>
+      </c>
+      <c s="7" r="J44">
+        <v>0.173015208594949</v>
+      </c>
+    </row>
+    <row r="45" ht="20.65" customHeight="0">
+      <c s="5" t="inlineStr" r="A45">
+        <is>
+          <t xml:space="preserve">38081</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B45">
+        <is>
+          <t xml:space="preserve">Sargent, ND        </t>
+        </is>
+      </c>
+      <c s="8" r="C45">
+        <v>9</v>
+      </c>
+      <c s="7" r="D45">
+        <v>0.0332829046898638</v>
+      </c>
+      <c s="7" r="E45">
+        <v>0.0767356881851401</v>
+      </c>
+      <c s="7" r="F45">
+        <v>0.0970491803278689</v>
+      </c>
+      <c s="7" r="G45">
+        <v>0.126798260287722</v>
+      </c>
+      <c s="3" t="str" r="H45"/>
+      <c s="7" r="I45">
+        <v>0.182113234763794</v>
+      </c>
+      <c s="7" r="J45">
+        <v>0.20021645021645</v>
+      </c>
+    </row>
+    <row r="46" ht="20.6" customHeight="0">
+      <c s="5" t="inlineStr" r="A46">
+        <is>
+          <t xml:space="preserve">38083</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B46">
+        <is>
+          <t xml:space="preserve">Sheridan, ND        </t>
+        </is>
+      </c>
+      <c s="8" r="C46">
+        <v>9</v>
+      </c>
+      <c s="7" r="D46">
+        <v>0.0290909090909091</v>
+      </c>
+      <c s="7" r="E46">
+        <v>0.0694444444444444</v>
+      </c>
+      <c s="7" r="F46">
+        <v>0.0815533980582524</v>
+      </c>
+      <c s="7" r="G46">
+        <v>0.096875</v>
+      </c>
+      <c s="3" t="str" r="H46"/>
+      <c s="7" r="I46">
+        <v>0.148737137511693</v>
+      </c>
+      <c s="7" r="J46">
+        <v>0.139446036294174</v>
+      </c>
+    </row>
+    <row r="47" ht="20.65" customHeight="0">
+      <c s="5" t="inlineStr" r="A47">
+        <is>
+          <t xml:space="preserve">38085</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B47">
+        <is>
+          <t xml:space="preserve">Sioux, ND        </t>
+        </is>
+      </c>
+      <c s="8" r="C47">
+        <v>3</v>
+      </c>
+      <c s="7" r="D47">
+        <v>0.0638998682476943</v>
+      </c>
+      <c s="7" r="E47">
+        <v>0.0891959798994975</v>
+      </c>
+      <c s="7" r="F47">
+        <v>0.0986622073578595</v>
+      </c>
+      <c s="7" r="G47">
+        <v>0.111516414799375</v>
+      </c>
+      <c s="3" t="str" r="H47"/>
+      <c s="7" r="I47">
+        <v>0.155959031657356</v>
+      </c>
+      <c s="7" r="J47">
+        <v>0.136212624584718</v>
+      </c>
+    </row>
+    <row r="48" ht="20.6" customHeight="0">
+      <c s="5" t="inlineStr" r="A48">
+        <is>
+          <t xml:space="preserve">38087</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B48">
+        <is>
+          <t xml:space="preserve">Slope, ND        </t>
+        </is>
+      </c>
+      <c s="8" r="C48">
+        <v>9</v>
+      </c>
+      <c s="7" r="D48">
+        <v>0.0472878998609179</v>
+      </c>
+      <c s="7" r="E48">
+        <v>0.112781954887218</v>
+      </c>
+      <c s="7" r="F48">
+        <v>0.104273504273504</v>
+      </c>
+      <c s="7" r="G48">
+        <v>0.159851301115242</v>
+      </c>
+      <c s="3" t="str" r="H48"/>
+      <c s="7" r="I48">
+        <v>0.226713532513181</v>
+      </c>
+      <c s="7" r="J48">
+        <v>0.262068965517241</v>
+      </c>
+    </row>
+    <row r="49" ht="20.65" customHeight="0">
+      <c s="5" t="inlineStr" r="A49">
+        <is>
+          <t xml:space="preserve">38089</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B49">
+        <is>
+          <t xml:space="preserve">Stark, ND        </t>
+        </is>
+      </c>
+      <c s="8" r="C49">
+        <v>7</v>
+      </c>
+      <c s="7" r="D49">
+        <v>0.0821261421885447</v>
+      </c>
+      <c s="7" r="E49">
+        <v>0.144504860767837</v>
+      </c>
+      <c s="7" r="F49">
+        <v>0.148047683631951</v>
+      </c>
+      <c s="7" r="G49">
+        <v>0.22291608195341</v>
+      </c>
+      <c s="3" t="str" r="H49"/>
+      <c s="7" r="I49">
+        <v>0.235484461810855</v>
+      </c>
+      <c s="7" r="J49">
+        <v>0.259347124691592</v>
+      </c>
+    </row>
+    <row r="50" ht="20.6" customHeight="0">
+      <c s="5" t="inlineStr" r="A50">
+        <is>
+          <t xml:space="preserve">38091</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B50">
+        <is>
+          <t xml:space="preserve">Steele, ND        </t>
+        </is>
+      </c>
+      <c s="8" r="C50">
+        <v>8</v>
+      </c>
+      <c s="7" r="D50">
+        <v>0.0415320719889248</v>
+      </c>
+      <c s="7" r="E50">
+        <v>0.126283367556468</v>
+      </c>
+      <c s="7" r="F50">
+        <v>0.137067938021454</v>
+      </c>
+      <c s="7" r="G50">
+        <v>0.198168737737083</v>
+      </c>
+      <c s="3" t="str" r="H50"/>
+      <c s="7" r="I50">
+        <v>0.176592797783934</v>
+      </c>
+      <c s="7" r="J50">
+        <v>0.295933734939759</v>
+      </c>
+    </row>
+    <row r="51" ht="20.65" customHeight="0">
+      <c s="5" t="inlineStr" r="A51">
+        <is>
+          <t xml:space="preserve">38093</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B51">
+        <is>
+          <t xml:space="preserve">Stutsman, ND        </t>
+        </is>
+      </c>
+      <c s="8" r="C51">
+        <v>7</v>
+      </c>
+      <c s="7" r="D51">
+        <v>0.0742274365462771</v>
+      </c>
+      <c s="7" r="E51">
+        <v>0.137875158517684</v>
+      </c>
+      <c s="7" r="F51">
+        <v>0.167033874965574</v>
+      </c>
+      <c s="7" r="G51">
+        <v>0.196606922971679</v>
+      </c>
+      <c s="3" t="str" r="H51"/>
+      <c s="7" r="I51">
+        <v>0.23746901679978</v>
+      </c>
+      <c s="7" r="J51">
+        <v>0.238652316331306</v>
+      </c>
+    </row>
+    <row r="52" ht="20.6" customHeight="0">
+      <c s="5" t="inlineStr" r="A52">
+        <is>
+          <t xml:space="preserve">38095</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B52">
+        <is>
+          <t xml:space="preserve">Towner, ND        </t>
+        </is>
+      </c>
+      <c s="8" r="C52">
+        <v>9</v>
+      </c>
+      <c s="7" r="D52">
+        <v>0.0519332827899924</v>
+      </c>
+      <c s="7" r="E52">
+        <v>0.104313725490196</v>
+      </c>
+      <c s="7" r="F52">
+        <v>0.126990608411597</v>
+      </c>
+      <c s="7" r="G52">
+        <v>0.161400097228974</v>
+      </c>
+      <c s="3" t="str" r="H52"/>
+      <c s="7" r="I52">
+        <v>0.228450874020494</v>
+      </c>
+      <c s="7" r="J52">
+        <v>0.150061500615006</v>
+      </c>
+    </row>
+    <row r="53" ht="20.65" customHeight="0">
+      <c s="5" t="inlineStr" r="A53">
+        <is>
+          <t xml:space="preserve">38097</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B53">
+        <is>
+          <t xml:space="preserve">Traill, ND        </t>
+        </is>
+      </c>
+      <c s="8" r="C53">
+        <v>8</v>
+      </c>
+      <c s="7" r="D53">
+        <v>0.0904969169387015</v>
+      </c>
+      <c s="7" r="E53">
+        <v>0.142881854350458</v>
+      </c>
+      <c s="7" r="F53">
+        <v>0.176928520877565</v>
+      </c>
+      <c s="7" r="G53">
+        <v>0.217791411042945</v>
+      </c>
+      <c s="3" t="str" r="H53"/>
+      <c s="7" r="I53">
+        <v>0.278506375227687</v>
+      </c>
+      <c s="7" r="J53">
+        <v>0.30386942967174</v>
+      </c>
+    </row>
+    <row r="54" ht="20.6" customHeight="0">
+      <c s="5" t="inlineStr" r="A54">
+        <is>
+          <t xml:space="preserve">38099</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B54">
+        <is>
+          <t xml:space="preserve">Walsh, ND        </t>
+        </is>
+      </c>
+      <c s="8" r="C54">
+        <v>6</v>
+      </c>
+      <c s="7" r="D54">
+        <v>0.0503272883356583</v>
+      </c>
+      <c s="7" r="E54">
+        <v>0.086464984821522</v>
+      </c>
+      <c s="7" r="F54">
+        <v>0.129621527018158</v>
+      </c>
+      <c s="7" r="G54">
+        <v>0.132825322391559</v>
+      </c>
+      <c s="3" t="str" r="H54"/>
+      <c s="7" r="I54">
+        <v>0.164039843651494</v>
+      </c>
+      <c s="7" r="J54">
+        <v>0.180568656515294</v>
+      </c>
+    </row>
+    <row r="55" ht="20.65" customHeight="0">
+      <c s="5" t="inlineStr" r="A55">
+        <is>
+          <t xml:space="preserve">38101</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B55">
+        <is>
+          <t xml:space="preserve">Ward, ND        </t>
+        </is>
+      </c>
+      <c s="8" r="C55">
+        <v>5</v>
+      </c>
+      <c s="7" r="D55">
+        <v>0.114354599406528</v>
+      </c>
+      <c s="7" r="E55">
+        <v>0.16200431392069</v>
+      </c>
+      <c s="7" r="F55">
+        <v>0.189727865082407</v>
+      </c>
+      <c s="7" r="G55">
+        <v>0.221264287899435</v>
+      </c>
+      <c s="3" t="str" r="H55"/>
+      <c s="7" r="I55">
+        <v>0.262567651956703</v>
+      </c>
+      <c s="7" r="J55">
+        <v>0.293608688722421</v>
+      </c>
+    </row>
+    <row r="56" ht="20.6" customHeight="0">
+      <c s="5" t="inlineStr" r="A56">
+        <is>
+          <t xml:space="preserve">38103</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B56">
+        <is>
+          <t xml:space="preserve">Wells, ND        </t>
+        </is>
+      </c>
+      <c s="8" r="C56">
+        <v>9</v>
+      </c>
+      <c s="7" r="D56">
+        <v>0.0513629195764812</v>
+      </c>
+      <c s="7" r="E56">
+        <v>0.0898366606170599</v>
+      </c>
+      <c s="7" r="F56">
+        <v>0.113347711478553</v>
+      </c>
+      <c s="7" r="G56">
+        <v>0.137012113055182</v>
+      </c>
+      <c s="3" t="str" r="H56"/>
+      <c s="7" r="I56">
+        <v>0.189305470190535</v>
+      </c>
+      <c s="7" r="J56">
+        <v>0.218908844459505</v>
+      </c>
+    </row>
+    <row r="57" ht="20.6" customHeight="0">
+      <c s="5" t="inlineStr" r="A57">
+        <is>
+          <t xml:space="preserve">38105</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B57">
+        <is>
+          <t xml:space="preserve">Williams, ND        </t>
+        </is>
+      </c>
+      <c s="8" r="C57">
+        <v>7</v>
+      </c>
+      <c s="7" r="D57">
+        <v>0.0557764963213363</v>
+      </c>
+      <c s="7" r="E57">
+        <v>0.126608211095632</v>
+      </c>
+      <c s="7" r="F57">
+        <v>0.143258842681663</v>
+      </c>
+      <c s="7" r="G57">
+        <v>0.165159411404047</v>
+      </c>
+      <c s="3" t="str" r="H57"/>
+      <c s="7" r="I57">
+        <v>0.19341485161126</v>
+      </c>
+      <c s="7" r="J57">
+        <v>0.244075829383886</v>
+      </c>
+    </row>
+    <row r="58" ht="0.05" customHeight="1"/>
+    <row r="59" ht="5.95" customHeight="1"/>
+    <row r="60" ht="222.75" customHeight="1">
+      <c s="9" t="inlineStr" r="A60">
         <is>
           <r>
             <rPr>
@@ -641,17 +2409,68 @@
         </is>
       </c>
     </row>
-    <row r="9" ht="14.75" customHeight="1"/>
   </sheetData>
   <mergeCells>
     <mergeCell ref="A2:J2"/>
     <mergeCell ref="G3:H3"/>
     <mergeCell ref="G4:H4"/>
     <mergeCell ref="G5:H5"/>
-    <mergeCell ref="A8:G8"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="G44:H44"/>
+    <mergeCell ref="G45:H45"/>
+    <mergeCell ref="G46:H46"/>
+    <mergeCell ref="G47:H47"/>
+    <mergeCell ref="G48:H48"/>
+    <mergeCell ref="G49:H49"/>
+    <mergeCell ref="G50:H50"/>
+    <mergeCell ref="G51:H51"/>
+    <mergeCell ref="G52:H52"/>
+    <mergeCell ref="G53:H53"/>
+    <mergeCell ref="G54:H54"/>
+    <mergeCell ref="G55:H55"/>
+    <mergeCell ref="G56:H56"/>
+    <mergeCell ref="G57:H57"/>
+    <mergeCell ref="A60:G60"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A8" r:id="rId7"/>
+    <hyperlink ref="A60" r:id="rId7"/>
   </hyperlinks>
   <pageMargins left="1" right="1" top="1" bottom="1" header="1" footer="1"/>
   <pageSetup paperSize="0" orientation="landscape" horizontalDpi="300" verticalDpi="300"/>
